--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1107653.707251521</v>
+        <v>1078665.510602064</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1737911.484358931</v>
+        <v>2083705.798332966</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4541732.173075099</v>
+        <v>3522967.675855582</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10079185.08320224</v>
+        <v>10485671.71985244</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>18.01023183214299</v>
+        <v>31.25119776628808</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>282.2611447069673</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>115.2511029009959</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.75446130335949</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>372.5327915267483</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>40.62363183383287</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>65.51651982872603</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>52.10844059186254</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>206.6496618758914</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>323.9918595228954</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>155.2114886365809</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>165.0140383262325</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>376.184863643924</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>146.3874833072597</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>31.95381956800642</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.1620927780567</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U17" t="n">
-        <v>28.19788340312289</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183529</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>142.4361410009211</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>206.6496618758914</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183529</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>130.6238796385551</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>118.8184004271353</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>28.56876306769571</v>
       </c>
       <c r="C28" t="n">
-        <v>156.5918462324807</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>164.3675597136118</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>161.1706059301398</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>176.5024369657218</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>107.9892416131532</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,16 +3717,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>134.78685608927</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>55.65399379500872</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>27.55584844405775</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>181.5016905511568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>781.1711973675267</v>
+        <v>1135.888471323017</v>
       </c>
       <c r="C2" t="n">
-        <v>412.2086804271149</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2678.956937652421</v>
+        <v>2665.582224587628</v>
       </c>
       <c r="S2" t="n">
-        <v>2502.779449966592</v>
+        <v>2665.582224587628</v>
       </c>
       <c r="T2" t="n">
-        <v>2284.144782938654</v>
+        <v>2446.947557559691</v>
       </c>
       <c r="U2" t="n">
-        <v>2284.144782938654</v>
+        <v>2193.185772197782</v>
       </c>
       <c r="V2" t="n">
-        <v>2284.144782938654</v>
+        <v>1862.122884854211</v>
       </c>
       <c r="W2" t="n">
-        <v>1931.37612766854</v>
+        <v>1509.354229584097</v>
       </c>
       <c r="X2" t="n">
-        <v>1557.91036940746</v>
+        <v>1135.888471323017</v>
       </c>
       <c r="Y2" t="n">
-        <v>1167.771037431648</v>
+        <v>1135.888471323017</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>819.715945170047</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>819.715945170047</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>819.715945170047</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>403.6754589963297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>234.6756587346621</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>76.92728616719222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.241103772296</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C8" t="n">
-        <v>1585.278586831884</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D8" t="n">
-        <v>1227.012888225134</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E8" t="n">
-        <v>841.2246356268895</v>
+        <v>923.9266662611112</v>
       </c>
       <c r="F8" t="n">
-        <v>430.2387308372819</v>
+        <v>512.9407614715037</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>94.97695336969059</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>94.97695336969059</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748108</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.241103772296</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240411</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261307</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>264.3261428644631</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>106.5777702969933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>120.1212846776635</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.944160717209</v>
+        <v>1865.553283416327</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.981643776797</v>
+        <v>1496.590766475915</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.981643776797</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E11" t="n">
-        <v>792.1933911785532</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F11" t="n">
-        <v>381.2074863889456</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733128</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>3368.526868987454</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>3015.75821371734</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.683332757143</v>
+        <v>2642.29245545626</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.544000781331</v>
+        <v>2252.153123480448</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1548.327088765651</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1746.983830418315</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2296.419839171037</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U13" t="n">
-        <v>571.3497027553424</v>
+        <v>784.7743001636422</v>
       </c>
       <c r="V13" t="n">
-        <v>571.3497027553424</v>
+        <v>530.0898119577554</v>
       </c>
       <c r="W13" t="n">
-        <v>281.9325327183818</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>1865.553283416332</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>1496.59076647592</v>
       </c>
       <c r="D14" t="n">
-        <v>819.715945170047</v>
+        <v>1138.32506786917</v>
       </c>
       <c r="E14" t="n">
-        <v>433.9276925718028</v>
+        <v>752.5368152709252</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>341.5509104813177</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>341.5509104813177</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>666.0988071604017</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.629876389912</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>2477.937544449758</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216835</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>3454.41379555613</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>3368.526868987459</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>3015.758213717345</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>2642.292455456265</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>2252.153123480453</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424008</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673427</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>192.6510469835162</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>522.0794512893258</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>1026.440991155444</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1205.938327510049</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1452.219619273624</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8405610245969</v>
+        <v>106.2683805488493</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8405610245969</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8405610245969</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8405610245969</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="F16" t="n">
-        <v>513.8405610245969</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="G16" t="n">
-        <v>348.0202652891861</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>175.0397247222303</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>359.8727196230485</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>565.1423203422863</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>770.9656851783905</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>945.0605805669892</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>1070.508157165605</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245969</v>
+        <v>866.4861918383699</v>
       </c>
       <c r="T16" t="n">
-        <v>513.8405610245969</v>
+        <v>866.4861918383699</v>
       </c>
       <c r="U16" t="n">
-        <v>513.8405610245969</v>
+        <v>577.3340154160496</v>
       </c>
       <c r="V16" t="n">
-        <v>513.8405610245969</v>
+        <v>577.3340154160496</v>
       </c>
       <c r="W16" t="n">
-        <v>513.8405610245969</v>
+        <v>287.916845379089</v>
       </c>
       <c r="X16" t="n">
-        <v>513.8405610245969</v>
+        <v>287.916845379089</v>
       </c>
       <c r="Y16" t="n">
-        <v>513.8405610245969</v>
+        <v>287.916845379089</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1975.039366445947</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>1606.076849505535</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1606.076849505535</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1220.288596907291</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>809.3026921176836</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>392.2149103541111</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403564</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>3484.789894598736</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>3456.307184090531</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3125.244296746961</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3125.244296746961</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>2751.778538485881</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2361.639206510069</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8126299914995</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>192.6510469835159</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>522.0794512893252</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.440991155443</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M18" t="n">
-        <v>1253.562877620961</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1452.219619273625</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2001.655628026347</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2425.623396507183</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.9917951266205</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>73.9917951266205</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
-        <v>73.9917951266205</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E19" t="n">
-        <v>73.9917951266205</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F19" t="n">
-        <v>73.9917951266205</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G19" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>359.872719623048</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422855</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783894</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669879</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>848.2972798983279</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>704.4223899984077</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>704.4223899984077</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>704.4223899984077</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>476.4328391003903</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>255.6402599568602</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1865.553283416327</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>1496.590766475915</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1496.590766475915</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1110.802513877671</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>699.8166090880632</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>282.7288273244906</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>73.9917951266205</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403561</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>666.098807160401</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449756</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.589756331025</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3368.526868987454</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3015.75821371734</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>2642.29245545626</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2252.153123480448</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8126299914995</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>192.6510469835159</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>522.0794512893252</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.440991155443</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1253.562877620961</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1452.219619273625</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.655628026347</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2425.623396507183</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2868.59125779959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>2699.655074871683</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>2699.655074871683</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>2699.655074871683</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>2699.655074871683</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>2699.655074871683</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>2699.655074871683</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>2699.655074871683</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>2699.655074871683</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>2800.703004467292</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>2985.53599936811</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>3190.805600087348</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>3396.628964923451</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>3570.72386031205</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>3696.171436910665</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>3699.589756331025</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>3699.589756331025</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>3699.589756331025</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>3567.646443564808</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>3567.646443564808</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>3567.646443564808</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>3278.229273527847</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>3050.239722629829</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>3050.239722629829</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>812.5733666950175</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>662.4567272826818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>514.5436337002886</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>367.6536862023783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.4856756861153</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>1270.926719659885</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.134140516355</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>592.8217113586345</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1332.888432463345</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1043.759793676903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>789.0753054710162</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>499.6581354340557</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,13 +6712,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.749344574921</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,19 +6931,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.0685056491545</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>410.1323227212476</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>260.0156833089119</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>260.0156833089119</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="X37" t="n">
-        <v>981.5095496229244</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.7169704793943</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4036.945405494735</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C40" t="n">
-        <v>4036.945405494735</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>3886.828766082399</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>3886.828766082399</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>3886.828766082399</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3718.65344440222</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3568.235435950163</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4036.945405494735</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>4036.945405494735</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="W40" t="n">
-        <v>4036.945405494735</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="X40" t="n">
-        <v>4036.945405494735</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y40" t="n">
-        <v>4036.945405494735</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899127</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>472.4860691490221</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C43" t="n">
-        <v>303.5498862211152</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D43" t="n">
-        <v>153.4332468087795</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>874.927113122792</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>874.927113122792</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>874.927113122792</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>874.927113122792</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="Y43" t="n">
-        <v>654.1345339792618</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="44">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1315.581229597138</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1060.896741391251</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>1060.896741391251</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>1060.896741391251</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>1060.896741391251</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928724</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.9065542451761</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569079</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451756</v>
+        <v>48.10560617263718</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9248,25 +9248,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>48.10560617264079</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>48.10560617264079</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>182.0340742867944</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>20.63789864135472</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22564,7 +22564,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22594,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>36.4681707426687</v>
+        <v>23.22720480852365</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22713,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,13 +22749,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>56.93405031343801</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -22767,10 +22767,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>131.5230253138277</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22840,19 +22840,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>254.4799977774731</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22953,19 +22953,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>112.2111604889788</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22998,13 +22998,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,10 +23023,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>41.25137849404666</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23187,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>79.90452819420521</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>82.85718120047571</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -23235,13 +23235,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>148.0333797447915</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>131.0703856053968</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>60.69561706280464</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>168.6534007679559</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>135.2930015306214</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>3.147709480994166</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>222.9569028191777</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>50.96659166315997</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>143.8245136571759</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>108.3912221993242</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>92.74902508220356</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>47.67516803624225</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>151.2632171142416</v>
       </c>
       <c r="C28" t="n">
-        <v>10.65497486614714</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.18000134477742</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>5.322962533237813</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>110.0205613708692</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>2.430003851118769</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>117.350787234558</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>90.77996885156045</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>198.1538069449794</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26076,19 +26076,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>104.7356618474205</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>743855.5326798136</v>
+        <v>859587.3690997222</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>743855.5326798137</v>
+        <v>859587.3690997227</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859587.3690997222</v>
+        <v>986536.9482191136</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859587.3690997221</v>
+        <v>986536.9482191136</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>986536.9482191138</v>
+        <v>986536.9482191135</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>986536.9482191135</v>
+        <v>986536.9482191136</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>986536.9482191138</v>
+        <v>986536.9482191135</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>986536.9482191138</v>
+        <v>986536.9482191136</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>986536.9482191138</v>
+        <v>986536.9482191136</v>
       </c>
     </row>
     <row r="16">
@@ -26316,25 +26316,25 @@
         <v>303610.2405165454</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="E2" t="n">
-        <v>303610.2405165454</v>
+        <v>354622.4384779896</v>
       </c>
       <c r="F2" t="n">
-        <v>303610.2405165454</v>
+        <v>354622.4384779896</v>
       </c>
       <c r="G2" t="n">
-        <v>354622.4384779896</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="H2" t="n">
-        <v>354622.4384779896</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="I2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="J2" t="n">
         <v>410580.5127245943</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>248146.7686188426</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.256948507943889e-09</v>
       </c>
       <c r="G3" t="n">
-        <v>236417.6520004549</v>
+        <v>263762.8892659092</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>255532.1595990993</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>62453.05588965292</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.062947371290648e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>60309.58713704782</v>
+        <v>69864.88484991089</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
-        <v>35944.74664026682</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="F4" t="n">
-        <v>35944.74664026682</v>
+        <v>32774.53910638621</v>
       </c>
       <c r="G4" t="n">
-        <v>32774.53910638623</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>32774.53910638623</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>69171.54328360147</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-405161.4634016753</v>
+        <v>-411229.8771474944</v>
       </c>
       <c r="C6" t="n">
-        <v>184806.4158128692</v>
+        <v>178738.0020670497</v>
       </c>
       <c r="D6" t="n">
-        <v>184806.4158128691</v>
+        <v>178738.0020670501</v>
       </c>
       <c r="E6" t="n">
-        <v>218434.0158128692</v>
+        <v>890.3260072184894</v>
       </c>
       <c r="F6" t="n">
-        <v>218434.0158128691</v>
+        <v>249037.0946260598</v>
       </c>
       <c r="G6" t="n">
-        <v>16258.70408754706</v>
+        <v>24552.16069794449</v>
       </c>
       <c r="H6" t="n">
-        <v>252676.356088002</v>
+        <v>288315.0499638537</v>
       </c>
       <c r="I6" t="n">
-        <v>33757.48162447619</v>
+        <v>288315.0499638536</v>
       </c>
       <c r="J6" t="n">
-        <v>112866.4220309824</v>
+        <v>111891.8307712608</v>
       </c>
       <c r="K6" t="n">
-        <v>289289.6412235753</v>
+        <v>288315.0499638537</v>
       </c>
       <c r="L6" t="n">
-        <v>289289.6412235753</v>
+        <v>288315.0499638537</v>
       </c>
       <c r="M6" t="n">
-        <v>289289.6412235753</v>
+        <v>225861.9940742008</v>
       </c>
       <c r="N6" t="n">
-        <v>289289.6412235753</v>
+        <v>288315.0499638534</v>
       </c>
       <c r="O6" t="n">
-        <v>228980.0540865274</v>
+        <v>218450.1651139428</v>
       </c>
       <c r="P6" t="n">
-        <v>289289.6412235754</v>
+        <v>288315.0499638537</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,37 +26746,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380636</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380636</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>924.8974390827575</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>215.7324361209767</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G3" t="n">
-        <v>215.732436120977</v>
+        <v>236.9063051160357</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.9063051160366</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,37 +27020,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="G4" t="n">
+        <v>290.3162041708154</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>250.6101663282006</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>290.3162041708168</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282006</v>
+        <v>290.3162041708154</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282006</v>
+        <v>290.3162041708154</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055152</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651539</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712522</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>425.710248335966</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822509</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>43.9508244118283</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842446</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900645</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671568</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080784</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>23.71104985784621</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308304</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838206993</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784123</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490361</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>159.109969588995</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676923</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441087</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714134</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.6148911510476</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937806</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522783</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055152</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651539</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712522</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>425.710248335966</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822509</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>43.9508244118283</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842446</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900645</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671568</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080784</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>23.71104985784621</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308304</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206993</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784123</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490361</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>159.109969588995</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676923</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441087</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714134</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.6148911510476</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937806</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522783</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355128</v>
+        <v>200.663375406731</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>340.5859315097343</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>22.96660727472374</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391274</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>407.542538404086</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517159</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>638.0987989730419</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513599</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233101</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588828</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312126</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452622</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748669</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355123</v>
+        <v>248.7689815793688</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269925</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>428.250271192764</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>233.0438950105732</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040855</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517154</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730412</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513592</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233096</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584802</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>332.755963945262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748665</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>229.4160469348671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>200.6633754067311</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>428.2502711927636</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.0438950105729</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295329</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>175.8534296854531</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353216</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040855</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517154</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730412</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513592</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233096</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584802</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>332.755963945262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748665</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>229.4160469348671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>200.6633754067311</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>428.2502711927636</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105729</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295329</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>175.8534296854531</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353216</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>332.6095128747336</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>227.7313135728794</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
